--- a/data/cellRAW/STscorei5.xlsx
+++ b/data/cellRAW/STscorei5.xlsx
@@ -476,10 +476,10 @@
         <v>530.285</v>
       </c>
       <c r="C2" t="n">
-        <v>808.3075571177504</v>
+        <v>703.9948717948718</v>
       </c>
       <c r="D2" t="n">
-        <v>843.1599099099099</v>
+        <v>785.0493827160494</v>
       </c>
       <c r="E2" t="n">
         <v>915.3645833333334</v>
